--- a/data/DOT/MTST/source.xlsx
+++ b/data/DOT/MTST/source.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C52DFF-5DC4-4F66-BE20-0C2AD2C7F6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -81,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +115,23 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,13 +153,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -421,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -478,17 +501,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>462</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
